--- a/output/luminance_avg.xlsx
+++ b/output/luminance_avg.xlsx
@@ -1,47 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="10785" windowHeight="6420"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -49,89 +383,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -178,7 +739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -211,26 +772,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -263,23 +807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,80 +948,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F13" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>764.2007344932144</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>767.3036886573052</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>764.1132650357679</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>764.1417910447761</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>764.1153993346875</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>764.9949880773646</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>765.1950602019489</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>764.6699417115606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>766.6069136565692</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>765.9380906120286</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/output/luminance_avg.xlsx
+++ b/output/luminance_avg.xlsx
@@ -423,502 +423,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1817.96</v>
+        <v>1427.49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1817.96</v>
+        <v>1427.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1817.96</v>
+        <v>1427.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1817.96</v>
+        <v>1427.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1817.96</v>
+        <v>1427.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1817.96</v>
+        <v>1427.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1817.96</v>
+        <v>1427.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1817.96</v>
+        <v>1427.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1817.96</v>
+        <v>1427.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1817.96</v>
+        <v>1427.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1817.96</v>
+        <v>1426.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1817.96</v>
+        <v>1426.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1817.96</v>
+        <v>1426.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1817.96</v>
+        <v>1427.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1817.96</v>
+        <v>1427.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1817.96</v>
+        <v>1429.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1817.96</v>
+        <v>1431.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1817.96</v>
+        <v>1432.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1817.96</v>
+        <v>1432.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1817.96</v>
+        <v>1431.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1817.96</v>
+        <v>1430.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1817.96</v>
+        <v>1432.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1817.96</v>
+        <v>1433.51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1817.96</v>
+        <v>1435.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1817.96</v>
+        <v>1436.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1817.96</v>
+        <v>1436.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1817.96</v>
+        <v>1435.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1817.96</v>
+        <v>1435.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1817.96</v>
+        <v>1435.42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1817.96</v>
+        <v>1434.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1817.96</v>
+        <v>1435.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1817.96</v>
+        <v>1434.82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1817.96</v>
+        <v>1435.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1817.96</v>
+        <v>1434.31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1817.96</v>
+        <v>1434.57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1817.96</v>
+        <v>1435.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1817.96</v>
+        <v>1435.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1817.96</v>
+        <v>1435.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1817.96</v>
+        <v>1435.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1817.96</v>
+        <v>1435.54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1817.96</v>
+        <v>1435.23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1817.96</v>
+        <v>1435.21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1817.96</v>
+        <v>1435.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1817.96</v>
+        <v>1434.77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1817.96</v>
+        <v>1434.28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1817.96</v>
+        <v>1434.12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1817.96</v>
+        <v>1434.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1817.96</v>
+        <v>1434.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1817.96</v>
+        <v>1434.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1817.96</v>
+        <v>1434.66</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1817.96</v>
+        <v>1434.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1817.96</v>
+        <v>1434.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1817.96</v>
+        <v>1434.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1817.96</v>
+        <v>1434.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1817.96</v>
+        <v>1434.63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1817.96</v>
+        <v>1434.86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1817.96</v>
+        <v>1434.61</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1817.96</v>
+        <v>1434.62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1817.96</v>
+        <v>1434.57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1817.96</v>
+        <v>1434.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1817.96</v>
+        <v>1434.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1817.96</v>
+        <v>1434.26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1817.96</v>
+        <v>1434.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1817.96</v>
+        <v>1433.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1817.96</v>
+        <v>1433.66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1817.96</v>
+        <v>1433.54</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1817.96</v>
+        <v>1433.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1817.96</v>
+        <v>1433.87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1817.96</v>
+        <v>1434.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1817.96</v>
+        <v>1434.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1817.96</v>
+        <v>1434.37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1817.96</v>
+        <v>1434.36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1817.96</v>
+        <v>1434.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1817.96</v>
+        <v>1434.22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1817.96</v>
+        <v>1434.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1817.96</v>
+        <v>1433.99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1817.96</v>
+        <v>1433.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1817.96</v>
+        <v>1433.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1817.96</v>
+        <v>1433.66</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1817.96</v>
+        <v>1433.69</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1817.96</v>
+        <v>1433.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1817.96</v>
+        <v>1433.34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1817.96</v>
+        <v>1433.42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1817.96</v>
+        <v>1433.32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1817.96</v>
+        <v>1433.44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1817.96</v>
+        <v>1433.18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1817.96</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1817.96</v>
+        <v>1433.47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1817.96</v>
+        <v>1433.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1817.96</v>
+        <v>1433.41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1817.96</v>
+        <v>1433.66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1817.96</v>
+        <v>1433.34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1817.96</v>
+        <v>1432.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1817.96</v>
+        <v>1432.65</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1817.96</v>
+        <v>1432.93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1817.96</v>
+        <v>1432.97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1817.96</v>
+        <v>1432.88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1817.96</v>
+        <v>1432.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1817.96</v>
+        <v>1432.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1817.96</v>
+        <v>1433.04</v>
       </c>
     </row>
   </sheetData>

--- a/output/luminance_avg.xlsx
+++ b/output/luminance_avg.xlsx
@@ -423,502 +423,502 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1427.49</v>
+        <v>1428.86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1427.26</v>
+        <v>1428.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1427.8</v>
+        <v>1428.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1427.4</v>
+        <v>1428.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1427.86</v>
+        <v>1428.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1427.47</v>
+        <v>1428.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1427.56</v>
+        <v>1429.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1427.63</v>
+        <v>1429.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1427.92</v>
+        <v>1429.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1427.09</v>
+        <v>1429.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1426.2</v>
+        <v>1429.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1426.39</v>
+        <v>1429.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1426.64</v>
+        <v>1430.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1427.49</v>
+        <v>1429.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1427.76</v>
+        <v>1429.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1429.8</v>
+        <v>1429.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1431.29</v>
+        <v>1429.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1432.21</v>
+        <v>1429.07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1432.4</v>
+        <v>1429.19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1431.82</v>
+        <v>1429.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1430.42</v>
+        <v>1430.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1432.29</v>
+        <v>1429.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1433.51</v>
+        <v>1429.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1435.9</v>
+        <v>1430.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1436.85</v>
+        <v>1430.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1436.2</v>
+        <v>1430.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1435.72</v>
+        <v>1430.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1435.36</v>
+        <v>1430.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1435.42</v>
+        <v>1430.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1434.9</v>
+        <v>1430.24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1435.16</v>
+        <v>1429.69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1434.82</v>
+        <v>1429.93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1435.03</v>
+        <v>1429.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1434.31</v>
+        <v>1429.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1434.57</v>
+        <v>1429.21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1435.62</v>
+        <v>1429.37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1435.26</v>
+        <v>1429.71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1435.52</v>
+        <v>1429.43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1435.9</v>
+        <v>1429.04</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1435.54</v>
+        <v>1429.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1435.23</v>
+        <v>1428.83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1435.21</v>
+        <v>1429.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1435.1</v>
+        <v>1428.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1434.77</v>
+        <v>1429.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1434.28</v>
+        <v>1429.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1434.12</v>
+        <v>1429.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1434.04</v>
+        <v>1428.91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1434.16</v>
+        <v>1429.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1434.08</v>
+        <v>1429.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1434.66</v>
+        <v>1429.68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1434.79</v>
+        <v>1429.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1434.95</v>
+        <v>1429.07</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1434.75</v>
+        <v>1428.82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1434.55</v>
+        <v>1428.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1434.63</v>
+        <v>1429.37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1434.86</v>
+        <v>1429.19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1434.61</v>
+        <v>1429.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1434.62</v>
+        <v>1429.58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1434.57</v>
+        <v>1429.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1434.2</v>
+        <v>1429.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1434.1</v>
+        <v>1430.07</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1434.26</v>
+        <v>1430.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1434.3</v>
+        <v>1430.12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1433.52</v>
+        <v>1429.87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1433.66</v>
+        <v>1429.44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1433.54</v>
+        <v>1429.33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1433.84</v>
+        <v>1429.31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1433.87</v>
+        <v>1429.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1434.01</v>
+        <v>1429.22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1434.01</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1434.37</v>
+        <v>1429.44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1434.36</v>
+        <v>1429.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1434.4</v>
+        <v>1429.74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1434.22</v>
+        <v>1429.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1434.25</v>
+        <v>1430.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1433.99</v>
+        <v>1430.24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1433.9</v>
+        <v>1429.84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1433.63</v>
+        <v>1430.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1433.66</v>
+        <v>1429.83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1433.69</v>
+        <v>1429.57</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1433.58</v>
+        <v>1429.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1433.34</v>
+        <v>1428.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1433.42</v>
+        <v>1429.07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1433.32</v>
+        <v>1428.86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1433.44</v>
+        <v>1428.65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1433.18</v>
+        <v>1428.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1433</v>
+        <v>1429.19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1433.47</v>
+        <v>1429.56</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1433.22</v>
+        <v>1429.83</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1433.41</v>
+        <v>1429.85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1433.66</v>
+        <v>1429.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1433.34</v>
+        <v>1429.99</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1432.88</v>
+        <v>1430.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1432.65</v>
+        <v>1430.47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1432.93</v>
+        <v>1430.98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1432.97</v>
+        <v>1430.75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1432.88</v>
+        <v>1430.43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1432.72</v>
+        <v>1430.93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1432.59</v>
+        <v>1430.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1433.04</v>
+        <v>1431.06</v>
       </c>
     </row>
   </sheetData>

--- a/output/luminance_avg.xlsx
+++ b/output/luminance_avg.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,52 +423,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1767.96</v>
+        <v>3011.01</v>
+      </c>
+      <c r="B1" t="n">
+        <v>3016.61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1762.68</v>
+        <v>3016.63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3017.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1768.1</v>
+        <v>3016.8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3018.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1768.81</v>
+        <v>3015.34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3017.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1768.15</v>
+        <v>3014.91</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3015.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1767.98</v>
+        <v>3013.42</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3015.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1767.33</v>
+        <v>3014.3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3016.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1767.78</v>
+        <v>3015.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3017.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1768.12</v>
+        <v>3017.97</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3017.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1767.03</v>
+        <v>3012.17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3018.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3014.78</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3017.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
       </c>
     </row>
   </sheetData>
